--- a/Schedule Analysis/Schedule Analysis.xlsx
+++ b/Schedule Analysis/Schedule Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey Models\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCA6938B-1F89-4FEF-9AF9-08D77E13E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D67A225-041C-40EF-BCC7-E5A89BACDA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Analysis" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Schedule Analysis'!$A$1:$X$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,13 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,8 +705,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" activeCellId="2" sqref="A8:XFD8 A4:XFD4 A6:XFD6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,8 +1191,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>45348</v>
@@ -1188,321 +1201,321 @@
         <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3">
         <v>45355</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K2" s="3">
         <v>45362</v>
       </c>
       <c r="L2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="O2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="R2" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="2">
         <v>14</v>
       </c>
       <c r="T2" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U2" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V2" s="2">
         <v>19</v>
       </c>
       <c r="W2" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X2" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
         <v>45348</v>
       </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="1">
         <v>45355</v>
       </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1">
         <v>45362</v>
       </c>
-      <c r="L3" s="2">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>4</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>23.5</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>14</v>
+      </c>
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="O3" s="2">
-        <v>4</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>7</v>
-      </c>
-      <c r="R3" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="S3" s="2">
-        <v>15</v>
-      </c>
-      <c r="T3" s="2">
-        <v>7</v>
-      </c>
-      <c r="U3" s="2">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2">
-        <v>30</v>
-      </c>
-      <c r="W3" s="2">
-        <v>29</v>
-      </c>
-      <c r="X3" s="2">
-        <v>90</v>
+      <c r="W3">
+        <v>11</v>
+      </c>
+      <c r="X3">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
         <v>45348</v>
       </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
-        <v>45355</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>45362</v>
       </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>4.5</v>
       </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="R4" s="2">
-        <v>28</v>
-      </c>
-      <c r="S4" s="2">
-        <v>14</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>6.5</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
         <v>7</v>
       </c>
-      <c r="U4" s="2">
-        <v>30</v>
-      </c>
-      <c r="V4" s="2">
-        <v>19</v>
-      </c>
-      <c r="W4" s="2">
-        <v>29</v>
-      </c>
-      <c r="X4" s="2">
-        <v>78</v>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1">
         <v>45348</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45355</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
-        <v>45355</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>45362</v>
       </c>
-      <c r="L5" s="2">
-        <v>4</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>6.5</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>4.5</v>
+      </c>
+      <c r="R5">
+        <v>22</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
         <v>7</v>
       </c>
-      <c r="O5" s="2">
-        <v>4</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>7</v>
-      </c>
-      <c r="R5" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>15</v>
-      </c>
-      <c r="T5" s="2">
-        <v>5</v>
-      </c>
-      <c r="U5" s="2">
-        <v>27</v>
-      </c>
-      <c r="V5" s="2">
-        <v>30</v>
-      </c>
-      <c r="W5" s="2">
-        <v>19</v>
-      </c>
-      <c r="X5" s="2">
-        <v>76</v>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>11</v>
+      </c>
+      <c r="X5">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
+      <c r="A6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="3">
         <v>45348</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G6" s="3">
         <v>45355</v>
       </c>
       <c r="H6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="2">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K6" s="3">
         <v>45362</v>
@@ -1511,119 +1524,119 @@
         <v>4</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" s="2">
         <v>3</v>
       </c>
       <c r="P6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="R6" s="2">
         <v>27.5</v>
       </c>
       <c r="S6" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T6" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U6" s="2">
         <v>27</v>
       </c>
       <c r="V6" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="W6" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1">
         <v>45348</v>
       </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45355</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>7.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45362</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>5.5</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
         <v>6.5</v>
       </c>
-      <c r="G7" s="3">
-        <v>45355</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>45362</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>8</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="R7" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="S7" s="2">
-        <v>13</v>
-      </c>
-      <c r="T7" s="2">
-        <v>8</v>
-      </c>
-      <c r="U7" s="2">
-        <v>27</v>
-      </c>
-      <c r="V7" s="2">
-        <v>10</v>
-      </c>
-      <c r="W7" s="2">
-        <v>31</v>
-      </c>
-      <c r="X7" s="2">
-        <v>68</v>
+      <c r="R7">
+        <v>24</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>25</v>
+      </c>
+      <c r="X7">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="3">
         <v>45348</v>
@@ -1632,13 +1645,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
         <v>45355</v>
@@ -1656,48 +1669,48 @@
         <v>45362</v>
       </c>
       <c r="L8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O8" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="R8" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>15</v>
+      </c>
+      <c r="T8" s="2">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
         <v>27</v>
       </c>
-      <c r="S8" s="2">
-        <v>14</v>
-      </c>
-      <c r="T8" s="2">
-        <v>6</v>
-      </c>
-      <c r="U8" s="2">
-        <v>25</v>
-      </c>
       <c r="V8" s="2">
+        <v>30</v>
+      </c>
+      <c r="W8" s="2">
         <v>19</v>
       </c>
-      <c r="W8" s="2">
-        <v>25</v>
-      </c>
       <c r="X8" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
+      <c r="A9" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>45348</v>
@@ -1706,46 +1719,46 @@
         <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <v>45355</v>
       </c>
       <c r="H9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="3">
         <v>45362</v>
       </c>
       <c r="L9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="R9" s="2">
         <v>27</v>
@@ -1770,82 +1783,82 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
         <v>45348</v>
       </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5.5</v>
+      </c>
+      <c r="G10" s="1">
         <v>45355</v>
       </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45362</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4.5</v>
       </c>
-      <c r="K10" s="3">
-        <v>45362</v>
-      </c>
-      <c r="L10" s="2">
-        <v>4</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2</v>
-      </c>
-      <c r="N10" s="2">
-        <v>8</v>
-      </c>
-      <c r="O10" s="2">
-        <v>4</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>7</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>26</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>14</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>5</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10">
         <v>22</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>19</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10">
         <v>19</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>32</v>
+      <c r="A11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="1">
         <v>45348</v>
@@ -1881,267 +1894,267 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="R11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S11">
         <v>14</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V11">
         <v>19</v>
       </c>
       <c r="W11">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="X11">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
         <v>45348</v>
       </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>5.5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>45355</v>
       </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45362</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>5.5</v>
       </c>
-      <c r="K12" s="3">
-        <v>45362</v>
-      </c>
-      <c r="L12" s="2">
-        <v>4</v>
-      </c>
-      <c r="M12" s="2">
-        <v>2</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.5</v>
+      </c>
+      <c r="R12">
+        <v>22.5</v>
+      </c>
+      <c r="S12">
+        <v>13</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
         <v>8</v>
       </c>
-      <c r="O12" s="2">
-        <v>4</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>7</v>
-      </c>
-      <c r="R12" s="2">
-        <v>26</v>
-      </c>
-      <c r="S12" s="2">
-        <v>14</v>
-      </c>
-      <c r="T12" s="2">
-        <v>5</v>
-      </c>
-      <c r="U12" s="2">
-        <v>22</v>
-      </c>
-      <c r="V12" s="2">
-        <v>19</v>
-      </c>
-      <c r="W12" s="2">
-        <v>19</v>
-      </c>
-      <c r="X12" s="2">
-        <v>60</v>
+      <c r="X12">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5">
         <v>45348</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45355</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45362</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>3</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
         <v>5.5</v>
       </c>
-      <c r="G13" s="1">
-        <v>45355</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>6.5</v>
-      </c>
-      <c r="K13" s="1">
-        <v>45362</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>4.5</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>9</v>
-      </c>
-      <c r="R13">
-        <v>25.5</v>
-      </c>
-      <c r="S13">
+      <c r="R13" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="S13" s="4">
         <v>13</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
+        <v>2</v>
+      </c>
+      <c r="U13" s="4">
         <v>6</v>
       </c>
-      <c r="U13">
-        <v>21</v>
-      </c>
-      <c r="V13">
+      <c r="V13" s="4">
         <v>10</v>
       </c>
-      <c r="W13">
-        <v>25</v>
-      </c>
-      <c r="X13">
-        <v>56</v>
+      <c r="W13" s="4">
+        <v>3</v>
+      </c>
+      <c r="X13" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5">
         <v>45348</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45355</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>7</v>
       </c>
-      <c r="G14" s="1">
-        <v>45355</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>5.5</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <v>45362</v>
       </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="L14" s="4">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>3</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>4.5</v>
       </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-      <c r="R14">
-        <v>25</v>
-      </c>
-      <c r="S14">
-        <v>14</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-      <c r="U14">
-        <v>18</v>
-      </c>
-      <c r="V14">
-        <v>19</v>
-      </c>
-      <c r="W14">
-        <v>11</v>
-      </c>
-      <c r="X14">
-        <v>48</v>
+      <c r="R14" s="4">
+        <v>20</v>
+      </c>
+      <c r="S14" s="4">
+        <v>12</v>
+      </c>
+      <c r="T14" s="4">
+        <v>2</v>
+      </c>
+      <c r="U14" s="4">
+        <v>4</v>
+      </c>
+      <c r="V14" s="4">
+        <v>3</v>
+      </c>
+      <c r="W14" s="4">
+        <v>3</v>
+      </c>
+      <c r="X14" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>45348</v>
@@ -2162,75 +2175,75 @@
         <v>45355</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K15" s="1">
         <v>45362</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="R15">
+        <v>25.5</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>21</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+      <c r="W15">
         <v>25</v>
       </c>
-      <c r="S15">
-        <v>14</v>
-      </c>
-      <c r="T15">
-        <v>4</v>
-      </c>
-      <c r="U15">
-        <v>18</v>
-      </c>
-      <c r="V15">
-        <v>19</v>
-      </c>
-      <c r="W15">
-        <v>11</v>
-      </c>
       <c r="X15">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>45348</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1">
         <v>45355</v>
@@ -2239,353 +2252,353 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="K16" s="1">
         <v>45362</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="R16">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="S16">
+        <v>13</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16">
         <v>14</v>
       </c>
-      <c r="T16">
-        <v>4</v>
-      </c>
-      <c r="U16">
-        <v>18</v>
-      </c>
       <c r="V16">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="W16">
         <v>11</v>
       </c>
       <c r="X16">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5">
         <v>45348</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
+      <c r="C17" s="4">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45355</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45362</v>
+      </c>
+      <c r="L17" s="4">
+        <v>4</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
         <v>7</v>
       </c>
-      <c r="G17" s="1">
-        <v>45355</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>5.5</v>
-      </c>
-      <c r="K17" s="1">
-        <v>45362</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="O17" s="4">
+        <v>3</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>4.5</v>
       </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>7.5</v>
-      </c>
-      <c r="R17">
-        <v>24.5</v>
-      </c>
-      <c r="S17">
+      <c r="R17" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="S17" s="4">
         <v>13</v>
       </c>
-      <c r="T17">
-        <v>5</v>
-      </c>
-      <c r="U17">
-        <v>17</v>
-      </c>
-      <c r="V17">
+      <c r="T17" s="4">
+        <v>3</v>
+      </c>
+      <c r="U17" s="4">
         <v>10</v>
       </c>
-      <c r="W17">
-        <v>19</v>
-      </c>
-      <c r="X17">
-        <v>46</v>
+      <c r="V17" s="4">
+        <v>10</v>
+      </c>
+      <c r="W17" s="4">
+        <v>8</v>
+      </c>
+      <c r="X17" s="4">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
         <v>45348</v>
       </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>4.5</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3">
         <v>45355</v>
       </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>7.5</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K18" s="3">
         <v>45362</v>
       </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>5.5</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>6.5</v>
-      </c>
-      <c r="R18">
-        <v>24</v>
-      </c>
-      <c r="S18">
-        <v>12</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18">
-        <v>16</v>
-      </c>
-      <c r="V18">
-        <v>3</v>
-      </c>
-      <c r="W18">
-        <v>25</v>
-      </c>
-      <c r="X18">
-        <v>44</v>
+      <c r="L18" s="2">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>7</v>
+      </c>
+      <c r="R18" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="S18" s="2">
+        <v>15</v>
+      </c>
+      <c r="T18" s="2">
+        <v>7</v>
+      </c>
+      <c r="U18" s="2">
+        <v>31</v>
+      </c>
+      <c r="V18" s="2">
+        <v>30</v>
+      </c>
+      <c r="W18" s="2">
+        <v>29</v>
+      </c>
+      <c r="X18" s="2">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
         <v>45348</v>
       </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45355</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>45362</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
         <v>7</v>
       </c>
-      <c r="G19" s="1">
-        <v>45355</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>6.5</v>
-      </c>
-      <c r="K19" s="1">
-        <v>45362</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>4.5</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>5.5</v>
-      </c>
-      <c r="R19">
-        <v>23.5</v>
-      </c>
-      <c r="S19">
-        <v>13</v>
-      </c>
-      <c r="T19">
-        <v>4</v>
-      </c>
-      <c r="U19">
-        <v>14</v>
-      </c>
-      <c r="V19">
-        <v>10</v>
-      </c>
-      <c r="W19">
-        <v>11</v>
-      </c>
-      <c r="X19">
-        <v>35</v>
+      <c r="O19" s="2">
+        <v>4</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>7</v>
+      </c>
+      <c r="R19" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="S19" s="2">
+        <v>15</v>
+      </c>
+      <c r="T19" s="2">
+        <v>5</v>
+      </c>
+      <c r="U19" s="2">
+        <v>27</v>
+      </c>
+      <c r="V19" s="2">
+        <v>30</v>
+      </c>
+      <c r="W19" s="2">
+        <v>19</v>
+      </c>
+      <c r="X19" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3">
         <v>45348</v>
       </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>4.5</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G20" s="3">
         <v>45355</v>
       </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
+      <c r="H20" s="2">
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>45362</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2">
         <v>8</v>
       </c>
-      <c r="K20" s="1">
-        <v>45362</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>2</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-      <c r="R20">
-        <v>23.5</v>
-      </c>
-      <c r="S20">
-        <v>13</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
+      <c r="O20" s="2">
+        <v>4</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>7</v>
+      </c>
+      <c r="R20" s="2">
+        <v>26</v>
+      </c>
+      <c r="S20" s="2">
         <v>14</v>
       </c>
-      <c r="V20">
-        <v>10</v>
-      </c>
-      <c r="W20">
-        <v>11</v>
-      </c>
-      <c r="X20">
-        <v>35</v>
+      <c r="T20" s="2">
+        <v>5</v>
+      </c>
+      <c r="U20" s="2">
+        <v>22</v>
+      </c>
+      <c r="V20" s="2">
+        <v>19</v>
+      </c>
+      <c r="W20" s="2">
+        <v>19</v>
+      </c>
+      <c r="X20" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>45348</v>
@@ -2609,57 +2622,57 @@
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K21" s="1">
         <v>45362</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S21">
         <v>14</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="V21">
         <v>19</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="X21">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>45348</v>
@@ -2668,87 +2681,87 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G22" s="1">
         <v>45355</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="K22" s="1">
         <v>45362</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="S22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="V22">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X22">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>45348</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1">
         <v>45355</v>
@@ -2775,780 +2788,780 @@
         <v>4.5</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="R23">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
       <c r="S23">
         <v>13</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V23">
         <v>10</v>
       </c>
       <c r="W23">
+        <v>19</v>
+      </c>
+      <c r="X23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45348</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>5.5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45355</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>5.5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45362</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>4.5</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <v>22.5</v>
+      </c>
+      <c r="S24">
+        <v>13</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>10</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
         <v>8</v>
       </c>
-      <c r="X23">
+      <c r="X24">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="6">
+    <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5">
         <v>45348</v>
       </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
         <v>4.5</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="5">
         <v>45355</v>
       </c>
-      <c r="H24" s="5">
-        <v>3</v>
-      </c>
-      <c r="I24" s="5">
-        <v>2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="H25" s="4">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="K25" s="5">
         <v>45362</v>
       </c>
-      <c r="L24" s="5">
-        <v>4</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1</v>
-      </c>
-      <c r="N24" s="5">
-        <v>7</v>
-      </c>
-      <c r="O24" s="5">
-        <v>3</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
+      <c r="L25" s="4">
+        <v>3</v>
+      </c>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="O25" s="4">
+        <v>3</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
         <v>4.5</v>
       </c>
-      <c r="R24" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="S24" s="5">
-        <v>13</v>
-      </c>
-      <c r="T24" s="5">
-        <v>3</v>
-      </c>
-      <c r="U24" s="5">
+      <c r="R25" s="4">
+        <v>20</v>
+      </c>
+      <c r="S25" s="4">
+        <v>12</v>
+      </c>
+      <c r="T25" s="4">
+        <v>2</v>
+      </c>
+      <c r="U25" s="4">
+        <v>4</v>
+      </c>
+      <c r="V25" s="4">
+        <v>3</v>
+      </c>
+      <c r="W25" s="4">
+        <v>3</v>
+      </c>
+      <c r="X25" s="4">
         <v>10</v>
-      </c>
-      <c r="V24" s="5">
-        <v>10</v>
-      </c>
-      <c r="W24" s="5">
-        <v>8</v>
-      </c>
-      <c r="X24" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="6">
-        <v>45348</v>
-      </c>
-      <c r="C25" s="5">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="6">
-        <v>45355</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>4</v>
-      </c>
-      <c r="K25" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L25" s="5">
-        <v>5</v>
-      </c>
-      <c r="M25" s="5">
-        <v>2</v>
-      </c>
-      <c r="N25" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="O25" s="5">
-        <v>3</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="R25" s="5">
-        <v>22</v>
-      </c>
-      <c r="S25" s="5">
-        <v>12</v>
-      </c>
-      <c r="T25" s="5">
-        <v>4</v>
-      </c>
-      <c r="U25" s="5">
-        <v>7</v>
-      </c>
-      <c r="V25" s="5">
-        <v>3</v>
-      </c>
-      <c r="W25" s="5">
-        <v>11</v>
-      </c>
-      <c r="X25" s="5">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
         <v>45348</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
         <v>45355</v>
       </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K26" s="3">
         <v>45362</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>4.5</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26">
-        <v>6.5</v>
-      </c>
-      <c r="R26">
-        <v>22</v>
-      </c>
-      <c r="S26">
-        <v>12</v>
-      </c>
-      <c r="T26">
-        <v>4</v>
-      </c>
-      <c r="U26">
-        <v>7</v>
-      </c>
-      <c r="V26">
-        <v>3</v>
-      </c>
-      <c r="W26">
-        <v>11</v>
-      </c>
-      <c r="X26">
-        <v>21</v>
+      <c r="L26" s="2">
+        <v>4</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3</v>
+      </c>
+      <c r="N26" s="2">
+        <v>9</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="R26" s="2">
+        <v>27</v>
+      </c>
+      <c r="S26" s="2">
+        <v>14</v>
+      </c>
+      <c r="T26" s="2">
+        <v>6</v>
+      </c>
+      <c r="U26" s="2">
+        <v>25</v>
+      </c>
+      <c r="V26" s="2">
+        <v>19</v>
+      </c>
+      <c r="W26" s="2">
+        <v>25</v>
+      </c>
+      <c r="X26" s="2">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3">
         <v>45348</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G27" s="3">
         <v>45355</v>
       </c>
-      <c r="H27">
-        <v>4</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K27" s="3">
+        <v>45362</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
         <v>8</v>
       </c>
-      <c r="K27" s="1">
+      <c r="O27" s="2">
+        <v>4</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>7</v>
+      </c>
+      <c r="R27" s="2">
+        <v>26</v>
+      </c>
+      <c r="S27" s="2">
+        <v>14</v>
+      </c>
+      <c r="T27" s="2">
+        <v>5</v>
+      </c>
+      <c r="U27" s="2">
+        <v>22</v>
+      </c>
+      <c r="V27" s="2">
+        <v>19</v>
+      </c>
+      <c r="W27" s="2">
+        <v>19</v>
+      </c>
+      <c r="X27" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45348</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45355</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4.5</v>
+      </c>
+      <c r="K28" s="1">
         <v>45362</v>
       </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>6.5</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>4.5</v>
       </c>
-      <c r="R27">
+      <c r="R28">
+        <v>23</v>
+      </c>
+      <c r="S28">
+        <v>14</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>13</v>
+      </c>
+      <c r="V28">
+        <v>19</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45348</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>45355</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45362</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>3</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="R29" s="4">
+        <v>19</v>
+      </c>
+      <c r="S29" s="4">
+        <v>12</v>
+      </c>
+      <c r="T29" s="4">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <v>3</v>
+      </c>
+      <c r="V29" s="4">
+        <v>3</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45348</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45355</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45362</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2</v>
+      </c>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <v>4</v>
+      </c>
+      <c r="O30" s="4">
+        <v>3</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R30" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="S30" s="4">
+        <v>11</v>
+      </c>
+      <c r="T30" s="4">
+        <v>2</v>
+      </c>
+      <c r="U30" s="4">
+        <v>2</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>3</v>
+      </c>
+      <c r="X30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45348</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="5">
+        <v>45355</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45362</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="O31" s="4">
+        <v>3</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R31" s="4">
         <v>22</v>
       </c>
-      <c r="S27">
+      <c r="S31" s="4">
         <v>12</v>
       </c>
-      <c r="T27">
-        <v>4</v>
-      </c>
-      <c r="U27">
+      <c r="T31" s="4">
+        <v>4</v>
+      </c>
+      <c r="U31" s="4">
         <v>7</v>
       </c>
-      <c r="V27">
-        <v>3</v>
-      </c>
-      <c r="W27">
+      <c r="V31" s="4">
+        <v>3</v>
+      </c>
+      <c r="W31" s="4">
         <v>11</v>
       </c>
-      <c r="X27">
+      <c r="X31" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="6">
+    <row r="32" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3">
         <v>45348</v>
       </c>
-      <c r="C28" s="5">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45355</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>45362</v>
+      </c>
+      <c r="L32" s="2">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2">
+        <v>8</v>
+      </c>
+      <c r="O32" s="2">
+        <v>4</v>
+      </c>
+      <c r="P32" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>10</v>
+      </c>
+      <c r="R32" s="2">
+        <v>30</v>
+      </c>
+      <c r="S32" s="2">
+        <v>14</v>
+      </c>
+      <c r="T32" s="2">
+        <v>9</v>
+      </c>
+      <c r="U32" s="2">
+        <v>32</v>
+      </c>
+      <c r="V32" s="2">
+        <v>19</v>
+      </c>
+      <c r="W32" s="2">
+        <v>32</v>
+      </c>
+      <c r="X32" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45348</v>
+      </c>
+      <c r="C33" s="4">
+        <v>3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
         <v>4.5</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G33" s="5">
         <v>45355</v>
       </c>
-      <c r="H28" s="5">
-        <v>4</v>
-      </c>
-      <c r="I28" s="5">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45362</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4">
+        <v>4</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4">
         <v>7</v>
       </c>
-      <c r="K28" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L28" s="5">
-        <v>3</v>
-      </c>
-      <c r="M28" s="5">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="O28" s="5">
-        <v>3</v>
-      </c>
-      <c r="P28" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="R28" s="5">
-        <v>21.5</v>
-      </c>
-      <c r="S28" s="5">
-        <v>13</v>
-      </c>
-      <c r="T28" s="5">
-        <v>2</v>
-      </c>
-      <c r="U28" s="5">
-        <v>6</v>
-      </c>
-      <c r="V28" s="5">
-        <v>10</v>
-      </c>
-      <c r="W28" s="5">
-        <v>3</v>
-      </c>
-      <c r="X28" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="6">
-        <v>45348</v>
-      </c>
-      <c r="C29" s="5">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G29" s="6">
-        <v>45355</v>
-      </c>
-      <c r="H29" s="5">
-        <v>4</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L29" s="5">
-        <v>2</v>
-      </c>
-      <c r="M29" s="5">
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
-        <v>4</v>
-      </c>
-      <c r="O29" s="5">
-        <v>3</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="R29" s="5">
-        <v>20</v>
-      </c>
-      <c r="S29" s="5">
-        <v>12</v>
-      </c>
-      <c r="T29" s="5">
-        <v>2</v>
-      </c>
-      <c r="U29" s="5">
-        <v>4</v>
-      </c>
-      <c r="V29" s="5">
-        <v>3</v>
-      </c>
-      <c r="W29" s="5">
-        <v>3</v>
-      </c>
-      <c r="X29" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="6">
-        <v>45348</v>
-      </c>
-      <c r="C30" s="5">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G30" s="6">
-        <v>45355</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="K30" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L30" s="5">
-        <v>3</v>
-      </c>
-      <c r="M30" s="5">
-        <v>1</v>
-      </c>
-      <c r="N30" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="O30" s="5">
-        <v>3</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="R30" s="5">
-        <v>20</v>
-      </c>
-      <c r="S30" s="5">
-        <v>12</v>
-      </c>
-      <c r="T30" s="5">
-        <v>2</v>
-      </c>
-      <c r="U30" s="5">
-        <v>4</v>
-      </c>
-      <c r="V30" s="5">
-        <v>3</v>
-      </c>
-      <c r="W30" s="5">
-        <v>3</v>
-      </c>
-      <c r="X30" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="6">
-        <v>45348</v>
-      </c>
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G31" s="6">
-        <v>45355</v>
-      </c>
-      <c r="H31" s="5">
-        <v>3</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="K31" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L31" s="5">
-        <v>3</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="O31" s="5">
-        <v>3</v>
-      </c>
-      <c r="P31" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="R31" s="5">
-        <v>19</v>
-      </c>
-      <c r="S31" s="5">
-        <v>12</v>
-      </c>
-      <c r="T31" s="5">
-        <v>1</v>
-      </c>
-      <c r="U31" s="5">
-        <v>3</v>
-      </c>
-      <c r="V31" s="5">
-        <v>3</v>
-      </c>
-      <c r="W31" s="5">
-        <v>1</v>
-      </c>
-      <c r="X31" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="6">
-        <v>45348</v>
-      </c>
-      <c r="C32" s="5">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5.5</v>
-      </c>
-      <c r="G32" s="6">
-        <v>45355</v>
-      </c>
-      <c r="H32" s="5">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="K32" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L32" s="5">
-        <v>2</v>
-      </c>
-      <c r="M32" s="5">
-        <v>1</v>
-      </c>
-      <c r="N32" s="5">
-        <v>4</v>
-      </c>
-      <c r="O32" s="5">
-        <v>3</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="R32" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="S32" s="5">
+      <c r="R33" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="S33" s="4">
         <v>11</v>
       </c>
-      <c r="T32" s="5">
-        <v>2</v>
-      </c>
-      <c r="U32" s="5">
-        <v>2</v>
-      </c>
-      <c r="V32" s="5">
-        <v>1</v>
-      </c>
-      <c r="W32" s="5">
-        <v>3</v>
-      </c>
-      <c r="X32" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="6">
-        <v>45348</v>
-      </c>
-      <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <v>3</v>
-      </c>
-      <c r="F33" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G33" s="6">
-        <v>45355</v>
-      </c>
-      <c r="H33" s="5">
-        <v>2</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>3</v>
-      </c>
-      <c r="K33" s="6">
-        <v>45362</v>
-      </c>
-      <c r="L33" s="5">
-        <v>2</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5">
-        <v>3</v>
-      </c>
-      <c r="O33" s="5">
-        <v>4</v>
-      </c>
-      <c r="P33" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>7</v>
-      </c>
-      <c r="R33" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="S33" s="5">
-        <v>11</v>
-      </c>
-      <c r="T33" s="5">
-        <v>1</v>
-      </c>
-      <c r="U33" s="5">
-        <v>1</v>
-      </c>
-      <c r="V33" s="5">
-        <v>1</v>
-      </c>
-      <c r="W33" s="5">
-        <v>1</v>
-      </c>
-      <c r="X33" s="5">
+      <c r="T33" s="4">
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1</v>
+      </c>
+      <c r="X33" s="4">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1">
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X33">
-      <sortCondition descending="1" ref="R1"/>
+      <sortCondition descending="1" ref="J1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule Analysis/Schedule Analysis.xlsx
+++ b/Schedule Analysis/Schedule Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey_Model\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A2F4F-3A58-427B-A570-EF332DFEDEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF52229-161C-40F5-B9BA-D19090A0C18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="This Week SA" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <sheet name="This Week DOW" sheetId="4" r:id="rId4"/>
     <sheet name="All DOW" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
   <si>
     <t>Team</t>
   </si>
@@ -38,102 +51,102 @@
     <t>Score</t>
   </si>
   <si>
+    <t>New York Islanders</t>
+  </si>
+  <si>
+    <t>Washington Capitals</t>
+  </si>
+  <si>
+    <t>San Jose Sharks</t>
+  </si>
+  <si>
+    <t>Columbus Blue Jackets</t>
+  </si>
+  <si>
+    <t>Calgary Flames</t>
+  </si>
+  <si>
+    <t>Seattle Kraken</t>
+  </si>
+  <si>
+    <t>Boston Bruins</t>
+  </si>
+  <si>
+    <t>Winnipeg Jets</t>
+  </si>
+  <si>
+    <t>Tampa Bay Lightning</t>
+  </si>
+  <si>
+    <t>Toronto Maple Leafs</t>
+  </si>
+  <si>
+    <t>Chicago Blackhawks</t>
+  </si>
+  <si>
+    <t>Pittsburgh Penguins</t>
+  </si>
+  <si>
+    <t>Anaheim Ducks</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
+  </si>
+  <si>
+    <t>Philadelphia Flyers</t>
+  </si>
+  <si>
+    <t>St. Louis Blues</t>
+  </si>
+  <si>
+    <t>Minnesota Wild</t>
+  </si>
+  <si>
+    <t>Montreal Canadiens</t>
+  </si>
+  <si>
+    <t>Ottawa Senators</t>
+  </si>
+  <si>
+    <t>New York Rangers</t>
+  </si>
+  <si>
+    <t>Nashville Predators</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>Carolina Hurricanes</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche</t>
+  </si>
+  <si>
+    <t>Utah Hockey Club</t>
+  </si>
+  <si>
+    <t>Buffalo Sabres</t>
+  </si>
+  <si>
+    <t>Vancouver Canucks</t>
+  </si>
+  <si>
+    <t>Florida Panthers</t>
+  </si>
+  <si>
     <t>New Jersey Devils</t>
   </si>
   <si>
-    <t>Philadelphia Flyers</t>
-  </si>
-  <si>
-    <t>Toronto Maple Leafs</t>
-  </si>
-  <si>
     <t>Detroit Red Wings</t>
   </si>
   <si>
-    <t>Tampa Bay Lightning</t>
-  </si>
-  <si>
-    <t>Edmonton Oilers</t>
-  </si>
-  <si>
-    <t>Ottawa Senators</t>
-  </si>
-  <si>
-    <t>Nashville Predators</t>
-  </si>
-  <si>
-    <t>Washington Capitals</t>
-  </si>
-  <si>
-    <t>Pittsburgh Penguins</t>
-  </si>
-  <si>
-    <t>Vegas Golden Knights</t>
-  </si>
-  <si>
-    <t>Anaheim Ducks</t>
-  </si>
-  <si>
-    <t>New York Islanders</t>
-  </si>
-  <si>
-    <t>Colorado Avalanche</t>
-  </si>
-  <si>
-    <t>Chicago Blackhawks</t>
-  </si>
-  <si>
-    <t>Montreal Canadiens</t>
-  </si>
-  <si>
-    <t>Los Angeles Kings</t>
-  </si>
-  <si>
-    <t>Calgary Flames</t>
-  </si>
-  <si>
-    <t>Carolina Hurricanes</t>
-  </si>
-  <si>
-    <t>San Jose Sharks</t>
-  </si>
-  <si>
-    <t>Seattle Kraken</t>
-  </si>
-  <si>
-    <t>St. Louis Blues</t>
-  </si>
-  <si>
-    <t>Minnesota Wild</t>
-  </si>
-  <si>
-    <t>Boston Bruins</t>
-  </si>
-  <si>
-    <t>Winnipeg Jets</t>
-  </si>
-  <si>
-    <t>New York Rangers</t>
-  </si>
-  <si>
-    <t>Utah Hockey Club</t>
-  </si>
-  <si>
-    <t>Florida Panthers</t>
-  </si>
-  <si>
     <t>Dallas Stars</t>
   </si>
   <si>
-    <t>Columbus Blue Jackets</t>
-  </si>
-  <si>
-    <t>Vancouver Canucks</t>
-  </si>
-  <si>
-    <t>Buffalo Sabres</t>
-  </si>
-  <si>
     <t>Next_Week_Num_Games</t>
   </si>
   <si>
@@ -203,16 +216,19 @@
     <t>Fri</t>
   </si>
   <si>
+    <t>Sun</t>
+  </si>
+  <si>
     <t>Sat</t>
   </si>
   <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>Total_Light</t>
   </si>
   <si>
     <t>Total_Heavy</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -233,12 +249,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,9 +281,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,9 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -588,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -616,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -630,10 +658,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -644,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -655,13 +683,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -669,13 +697,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -683,13 +711,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -697,13 +725,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -711,13 +739,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -725,13 +753,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -742,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -756,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -770,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -784,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -798,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -812,10 +840,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -826,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -840,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -854,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -868,10 +896,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -882,10 +910,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -896,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -910,10 +938,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -924,10 +952,10 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -938,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -952,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -966,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -980,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -994,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1008,10 +1036,10 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1022,10 +1050,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +1068,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A29" sqref="A29:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,21 +1095,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1095,7 +1123,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1109,44 +1137,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -1154,41 +1182,41 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1196,307 +1224,307 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1507,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1553,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="A5:XFD5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1618,186 +1646,186 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>6.5</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>7.5</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>5.5</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>5.5</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
+      <c r="P2">
+        <v>27.5</v>
+      </c>
+      <c r="Q2">
+        <v>13</v>
+      </c>
+      <c r="R2">
         <v>8</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>9</v>
-      </c>
-      <c r="P2">
-        <v>28</v>
-      </c>
-      <c r="Q2">
-        <v>14</v>
-      </c>
-      <c r="R2">
-        <v>7</v>
       </c>
       <c r="S2">
         <v>32</v>
       </c>
       <c r="T2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="U2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V2">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>5.5</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>5.5</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>6.5</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>7.5</v>
-      </c>
       <c r="P3">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S3">
         <v>31</v>
       </c>
       <c r="T3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="U3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V3">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
+        <v>6.5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>5.5</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>6.5</v>
-      </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>5.5</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>9</v>
       </c>
       <c r="P4">
         <v>26.5</v>
@@ -1809,24 +1837,24 @@
         <v>7</v>
       </c>
       <c r="S4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U4">
         <v>28</v>
       </c>
       <c r="V4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1841,72 +1869,72 @@
         <v>5.5</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
         <v>29</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V5">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1921,69 +1949,69 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>5.5</v>
+      </c>
+      <c r="P6">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
         <v>8</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>4.5</v>
-      </c>
-      <c r="P6">
-        <v>25.5</v>
-      </c>
-      <c r="Q6">
-        <v>13</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
       </c>
       <c r="S6">
         <v>28</v>
       </c>
       <c r="T6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="V6">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -2004,45 +2032,45 @@
         <v>5.5</v>
       </c>
       <c r="P7">
+        <v>24.5</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
         <v>25</v>
       </c>
-      <c r="Q7">
-        <v>14</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>27</v>
-      </c>
       <c r="T7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="U7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="V7">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
+      <c r="A8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -2054,90 +2082,90 @@
         <v>6.5</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P8">
         <v>24.5</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S8">
         <v>25</v>
       </c>
       <c r="T8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="V8">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="A9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>5.5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>4.5</v>
       </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>6.5</v>
-      </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P9">
         <v>24.5</v>
@@ -2152,42 +2180,42 @@
         <v>25</v>
       </c>
       <c r="T9">
+        <v>21</v>
+      </c>
+      <c r="U9">
         <v>18</v>
       </c>
-      <c r="U9">
-        <v>22</v>
-      </c>
       <c r="V9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45593</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6.5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45586</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -2199,13 +2227,13 @@
         <v>6.5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>24</v>
@@ -2220,42 +2248,42 @@
         <v>24</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V10">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
+      <c r="A11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -2267,42 +2295,42 @@
         <v>6.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
         <v>23.5</v>
       </c>
       <c r="Q11">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>22</v>
+      </c>
+      <c r="T11">
+        <v>21</v>
+      </c>
+      <c r="U11">
         <v>11</v>
       </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>18</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <v>28</v>
-      </c>
       <c r="V11">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2317,13 +2345,13 @@
         <v>5.5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -2335,13 +2363,13 @@
         <v>4.5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="P12">
         <v>23.5</v>
@@ -2353,104 +2381,104 @@
         <v>4</v>
       </c>
       <c r="S12">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U12">
         <v>11</v>
       </c>
       <c r="V12">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P13">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="U13">
         <v>18</v>
       </c>
-      <c r="T13">
-        <v>18</v>
-      </c>
-      <c r="U13">
-        <v>11</v>
-      </c>
       <c r="V13">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2465,69 +2493,69 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>23</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>17</v>
+      </c>
+      <c r="T14">
         <v>9</v>
       </c>
-      <c r="P14">
-        <v>23.5</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-      <c r="R14">
-        <v>4</v>
-      </c>
-      <c r="S14">
+      <c r="U14">
         <v>18</v>
       </c>
-      <c r="T14">
-        <v>18</v>
-      </c>
-      <c r="U14">
-        <v>11</v>
-      </c>
       <c r="V14">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
+        <v>6.5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>4.5</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
       </c>
       <c r="J15">
         <v>3</v>
@@ -2542,146 +2570,146 @@
         <v>3</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P15">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15">
+        <v>17</v>
+      </c>
+      <c r="T15">
+        <v>9</v>
+      </c>
+      <c r="U15">
         <v>18</v>
       </c>
-      <c r="T15">
-        <v>18</v>
-      </c>
-      <c r="U15">
-        <v>11</v>
-      </c>
       <c r="V15">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>5.5</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>4.5</v>
       </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P16">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16">
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>9</v>
+      </c>
+      <c r="U16">
         <v>18</v>
       </c>
-      <c r="T16">
-        <v>18</v>
-      </c>
-      <c r="U16">
-        <v>11</v>
-      </c>
       <c r="V16">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="P17">
         <v>23</v>
@@ -2693,45 +2721,45 @@
         <v>5</v>
       </c>
       <c r="S17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U17">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V17">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -2746,60 +2774,60 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="Q18">
+        <v>13</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
         <v>12</v>
       </c>
-      <c r="R18">
+      <c r="T18">
+        <v>21</v>
+      </c>
+      <c r="U18">
         <v>5</v>
       </c>
-      <c r="S18">
-        <v>16</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>22</v>
-      </c>
       <c r="V18">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>4.5</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>6.5</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -2811,13 +2839,13 @@
         <v>4.5</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P19">
         <v>22.5</v>
@@ -2829,45 +2857,45 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2882,119 +2910,119 @@
         <v>3</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P20">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
         <v>12</v>
       </c>
-      <c r="R20">
-        <v>4</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
       <c r="T20">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
+        <v>4.5</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>7</v>
       </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>6.5</v>
-      </c>
       <c r="M21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q21">
+        <v>13</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
         <v>12</v>
       </c>
-      <c r="R21">
-        <v>4</v>
-      </c>
-      <c r="S21">
-        <v>10</v>
-      </c>
       <c r="T21">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="U21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -3009,10 +3037,10 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -3024,72 +3052,72 @@
         <v>5.5</v>
       </c>
       <c r="P22">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
         <v>12</v>
       </c>
-      <c r="R22">
-        <v>4</v>
-      </c>
-      <c r="S22">
-        <v>10</v>
-      </c>
       <c r="T22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="V22">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
+        <v>6.5</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>4.5</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>6.5</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
       </c>
       <c r="P23">
         <v>22</v>
@@ -3104,42 +3132,42 @@
         <v>10</v>
       </c>
       <c r="T23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U23">
         <v>11</v>
       </c>
       <c r="V23">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>33</v>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3154,10 +3182,10 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P24">
         <v>22</v>
@@ -3172,51 +3200,51 @@
         <v>10</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U24">
         <v>11</v>
       </c>
       <c r="V24">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>27</v>
+      <c r="A25" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B25" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -3228,113 +3256,113 @@
         <v>4.5</v>
       </c>
       <c r="P25">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
+        <v>6.5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>4.5</v>
       </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>8</v>
-      </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T26">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V26">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>8</v>
+      <c r="A27" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B27" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -3346,13 +3374,13 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -3364,54 +3392,54 @@
         <v>3</v>
       </c>
       <c r="P27">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27">
         <v>7</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V27">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>34</v>
+      <c r="A28" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -3423,13 +3451,13 @@
         <v>4.5</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="P28">
         <v>20</v>
@@ -3441,131 +3469,131 @@
         <v>2</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T28">
+        <v>9</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45593</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>5.5</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>4.5</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>7</v>
       </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45586</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>20</v>
+      </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>9</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45593</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>6.5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>5.5</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>4.5</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>6.5</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>5.5</v>
-      </c>
-      <c r="P29">
-        <v>19.5</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
-      <c r="R29">
-        <v>3</v>
-      </c>
-      <c r="S29">
-        <v>4</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-      <c r="U29">
-        <v>7</v>
-      </c>
-      <c r="V29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45586</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>4.5</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>5.5</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>4.5</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>5</v>
       </c>
       <c r="P30">
         <v>19.5</v>
@@ -3583,107 +3611,107 @@
         <v>2</v>
       </c>
       <c r="U30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V30">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>5.5</v>
       </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>4.5</v>
-      </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P31">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
         <v>11</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
       <c r="V31">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B32" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -3704,13 +3732,13 @@
         <v>4.5</v>
       </c>
       <c r="P32">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Q32">
         <v>11</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <v>2</v>
@@ -3719,75 +3747,75 @@
         <v>2</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>45586</v>
+        <v>45593</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
+        <v>5.5</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>4.5</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
       <c r="M33">
         <v>3</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P33">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>4</v>
@@ -3847,7 +3875,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3859,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3868,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3879,7 +3907,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3900,10 +3928,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -3911,13 +3939,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3926,39 +3954,39 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3967,21 +3995,21 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3999,39 +4027,39 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -4039,19 +4067,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4063,97 +4091,97 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4162,33 +4190,33 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -4199,39 +4227,39 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4240,30 +4268,30 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4275,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4287,15 +4315,15 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4307,48 +4335,48 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4359,19 +4387,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4380,18 +4408,18 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4400,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4415,15 +4443,15 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4435,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4447,15 +4475,15 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4479,15 +4507,15 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4496,30 +4524,30 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4531,30 +4559,30 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4569,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4583,7 +4611,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4604,10 +4632,10 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4615,7 +4643,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4633,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4647,22 +4675,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4671,21 +4699,21 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4700,59 +4728,59 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4761,53 +4789,53 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4816,10 +4844,10 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4828,33 +4856,33 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -4863,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4878,10 +4906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4891,7 +4919,7 @@
     <col min="9" max="10" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4922,112 +4950,127 @@
       <c r="J1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <f>I2+J2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K33" si="0">I3+J3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5036,173 +5079,193 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>7</v>
       </c>
       <c r="J6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>7</v>
       </c>
       <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
       <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -5210,31 +5273,35 @@
       <c r="J10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>6</v>
@@ -5242,13 +5309,17 @@
       <c r="J11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5257,129 +5328,145 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5388,33 +5475,37 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5423,56 +5514,64 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>5</v>
       </c>
       <c r="J17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -5493,117 +5592,133 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
       <c r="J22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -5615,170 +5730,190 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -5786,43 +5921,51 @@
       <c r="J28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
       <c r="B30">
         <v>1</v>
       </c>
@@ -5830,68 +5973,76 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5903,24 +6054,28 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5935,16 +6090,20 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>12</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule Analysis/Schedule Analysis.xlsx
+++ b/Schedule Analysis/Schedule Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey_Model\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD98FD-E26D-40C1-82BF-329C71185261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B94EB-D101-42E3-8858-7CF34EFF1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="This Week SA" sheetId="1" r:id="rId1"/>
@@ -38,102 +38,102 @@
     <t>Score</t>
   </si>
   <si>
+    <t>Florida Panthers</t>
+  </si>
+  <si>
+    <t>Washington Capitals</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche</t>
+  </si>
+  <si>
+    <t>Vancouver Canucks</t>
+  </si>
+  <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
+    <t>Anaheim Ducks</t>
+  </si>
+  <si>
+    <t>Dallas Stars</t>
+  </si>
+  <si>
+    <t>Utah Hockey Club</t>
+  </si>
+  <si>
+    <t>Ottawa Senators</t>
+  </si>
+  <si>
+    <t>Seattle Kraken</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
+  </si>
+  <si>
+    <t>Carolina Hurricanes</t>
+  </si>
+  <si>
+    <t>Minnesota Wild</t>
+  </si>
+  <si>
+    <t>Toronto Maple Leafs</t>
+  </si>
+  <si>
+    <t>Detroit Red Wings</t>
+  </si>
+  <si>
+    <t>New York Rangers</t>
+  </si>
+  <si>
+    <t>Montreal Canadiens</t>
+  </si>
+  <si>
+    <t>Tampa Bay Lightning</t>
+  </si>
+  <si>
+    <t>Buffalo Sabres</t>
+  </si>
+  <si>
+    <t>Philadelphia Flyers</t>
+  </si>
+  <si>
+    <t>St. Louis Blues</t>
+  </si>
+  <si>
+    <t>Winnipeg Jets</t>
+  </si>
+  <si>
+    <t>Pittsburgh Penguins</t>
+  </si>
+  <si>
+    <t>Chicago Blackhawks</t>
+  </si>
+  <si>
+    <t>Boston Bruins</t>
+  </si>
+  <si>
+    <t>New Jersey Devils</t>
+  </si>
+  <si>
+    <t>San Jose Sharks</t>
+  </si>
+  <si>
+    <t>Columbus Blue Jackets</t>
+  </si>
+  <si>
     <t>Nashville Predators</t>
   </si>
   <si>
-    <t>Minnesota Wild</t>
-  </si>
-  <si>
-    <t>New Jersey Devils</t>
-  </si>
-  <si>
-    <t>Los Angeles Kings</t>
-  </si>
-  <si>
-    <t>Washington Capitals</t>
-  </si>
-  <si>
-    <t>Detroit Red Wings</t>
-  </si>
-  <si>
-    <t>Anaheim Ducks</t>
-  </si>
-  <si>
-    <t>Edmonton Oilers</t>
-  </si>
-  <si>
-    <t>Chicago Blackhawks</t>
-  </si>
-  <si>
-    <t>San Jose Sharks</t>
-  </si>
-  <si>
-    <t>Pittsburgh Penguins</t>
-  </si>
-  <si>
-    <t>Columbus Blue Jackets</t>
-  </si>
-  <si>
-    <t>Toronto Maple Leafs</t>
+    <t>Calgary Flames</t>
   </si>
   <si>
     <t>Vegas Golden Knights</t>
   </si>
   <si>
-    <t>Carolina Hurricanes</t>
-  </si>
-  <si>
-    <t>Colorado Avalanche</t>
-  </si>
-  <si>
-    <t>Philadelphia Flyers</t>
-  </si>
-  <si>
-    <t>Utah Hockey Club</t>
-  </si>
-  <si>
-    <t>Calgary Flames</t>
-  </si>
-  <si>
-    <t>Montreal Canadiens</t>
-  </si>
-  <si>
-    <t>Boston Bruins</t>
-  </si>
-  <si>
-    <t>Ottawa Senators</t>
-  </si>
-  <si>
-    <t>St. Louis Blues</t>
-  </si>
-  <si>
-    <t>Vancouver Canucks</t>
-  </si>
-  <si>
-    <t>Winnipeg Jets</t>
-  </si>
-  <si>
-    <t>Buffalo Sabres</t>
-  </si>
-  <si>
     <t>New York Islanders</t>
   </si>
   <si>
-    <t>Seattle Kraken</t>
-  </si>
-  <si>
-    <t>Dallas Stars</t>
-  </si>
-  <si>
-    <t>New York Rangers</t>
-  </si>
-  <si>
-    <t>Florida Panthers</t>
-  </si>
-  <si>
-    <t>Tampa Bay Lightning</t>
-  </si>
-  <si>
     <t>Next_Week_Num_Games</t>
   </si>
   <si>
@@ -197,16 +197,16 @@
     <t>Wed</t>
   </si>
   <si>
+    <t>Thu</t>
+  </si>
+  <si>
     <t>Fri</t>
   </si>
   <si>
+    <t>Sat</t>
+  </si>
+  <si>
     <t>Sun</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Sat</t>
   </si>
   <si>
     <t>Total_Light</t>
@@ -248,7 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -600,10 +600,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,10 +628,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +779,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,13 +975,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,13 +989,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,9 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1079,63 +1077,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1149,7 +1147,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1163,203 +1161,203 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1373,7 +1371,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1387,142 +1385,142 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -1536,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A2:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,123 +1629,123 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
+        <v>7.5</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>4.5</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
         <v>9</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>8</v>
-      </c>
       <c r="P2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>14</v>
       </c>
       <c r="R2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2">
+        <v>31</v>
+      </c>
+      <c r="U2">
         <v>30</v>
       </c>
-      <c r="U2">
-        <v>29</v>
-      </c>
       <c r="V2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3">
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <v>9</v>
@@ -1756,264 +1754,264 @@
         <v>31</v>
       </c>
       <c r="T3">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="U3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V3">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
         <v>6.5</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>7.5</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>5.5</v>
-      </c>
       <c r="M4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="P4">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>30</v>
       </c>
       <c r="T4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="V4">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>5.5</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>27.5</v>
+      </c>
+      <c r="Q5">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
-        <v>45600</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>5.5</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>5.5</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
+      <c r="R5">
         <v>8</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>27</v>
-      </c>
-      <c r="Q5">
-        <v>14</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
       </c>
       <c r="S5">
         <v>28</v>
       </c>
       <c r="T5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V5">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6">
+        <v>6.5</v>
+      </c>
+      <c r="P6">
+        <v>27.5</v>
+      </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
         <v>8</v>
-      </c>
-      <c r="P6">
-        <v>27</v>
-      </c>
-      <c r="Q6">
-        <v>14</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
       </c>
       <c r="S6">
         <v>28</v>
       </c>
       <c r="T6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V6">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <v>26.5</v>
@@ -2028,60 +2026,60 @@
         <v>27</v>
       </c>
       <c r="T7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V7">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
+        <v>7.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
         <v>6.5</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>6.5</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
       </c>
       <c r="P8">
         <v>26</v>
@@ -2096,60 +2094,60 @@
         <v>26</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>6.5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>7.5</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>4.5</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45600</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>6.5</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
       </c>
       <c r="P9">
         <v>25.5</v>
@@ -2164,60 +2162,60 @@
         <v>23</v>
       </c>
       <c r="T9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V9">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
         <v>25.5</v>
@@ -2232,21 +2230,21 @@
         <v>23</v>
       </c>
       <c r="T10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V10">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2273,19 +2271,19 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P11">
         <v>25.5</v>
@@ -2300,119 +2298,119 @@
         <v>23</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U11">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V11">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>6.5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>7.5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>4.5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>6.5</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
-        <v>45600</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>4.5</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>5.5</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>6.5</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>8</v>
-      </c>
-      <c r="P12">
-        <v>24.5</v>
-      </c>
-      <c r="Q12">
-        <v>13</v>
-      </c>
-      <c r="R12">
-        <v>5</v>
-      </c>
-      <c r="S12">
-        <v>22</v>
-      </c>
       <c r="T12">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="V12">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -2424,93 +2422,93 @@
         <v>6.5</v>
       </c>
       <c r="P13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V13">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>2</v>
       </c>
       <c r="O14">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="P14">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="V14">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2518,37 +2516,37 @@
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
+        <v>2.5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>4.5</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
       </c>
       <c r="M15">
         <v>4</v>
@@ -2560,276 +2558,276 @@
         <v>8</v>
       </c>
       <c r="P15">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="V15">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
+        <v>6.5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>4.5</v>
       </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>6.5</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>4.5</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
       <c r="P16">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U16">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="V16">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
+        <v>7.5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>5.5</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="P17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q17">
         <v>12</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V17">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
+        <v>7.5</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
       <c r="M18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P18">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="U18">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>5.5</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>6.5</v>
-      </c>
       <c r="M19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2841,181 +2839,181 @@
         <v>5</v>
       </c>
       <c r="S19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="V19">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M20">
         <v>4</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>23</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
         <v>8</v>
       </c>
-      <c r="P20">
-        <v>22.5</v>
-      </c>
-      <c r="Q20">
-        <v>13</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20">
-        <v>10</v>
-      </c>
       <c r="T20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V20">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M21">
         <v>4</v>
       </c>
       <c r="N21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P21">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T21">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V21">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -3030,128 +3028,128 @@
         <v>3</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P22">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V22">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
+        <v>5.5</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>7.5</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>5.5</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>4.5</v>
       </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>7</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
+      <c r="P23">
+        <v>23</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
         <v>8</v>
       </c>
-      <c r="P23">
-        <v>22.5</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-      <c r="R23">
-        <v>3</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
       <c r="T23">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V23">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -3163,63 +3161,63 @@
         <v>5.5</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O24">
+        <v>4.5</v>
+      </c>
+      <c r="P24">
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
         <v>8</v>
       </c>
-      <c r="P24">
-        <v>22.5</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
-      </c>
-      <c r="S24">
-        <v>10</v>
-      </c>
       <c r="T24">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="U24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V24">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -3231,63 +3229,63 @@
         <v>7</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q25">
         <v>12</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V25">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3308,93 +3306,93 @@
         <v>5.5</v>
       </c>
       <c r="P26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q26">
         <v>12</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="V26">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
         <v>6.5</v>
       </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>5.5</v>
-      </c>
       <c r="P27">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>7</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="V27">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -3402,7 +3400,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3420,10 +3418,10 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -3435,42 +3433,42 @@
         <v>4.5</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="P28">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="Q28">
+        <v>12</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
         <v>13</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
-      <c r="S28">
-        <v>6</v>
-      </c>
-      <c r="T28">
-        <v>14</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3488,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -3506,28 +3504,28 @@
         <v>4</v>
       </c>
       <c r="N29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q29">
         <v>12</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29">
         <v>5</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29">
         <v>13</v>
@@ -3535,135 +3533,135 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P30">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q30">
+        <v>12</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
         <v>10</v>
-      </c>
-      <c r="R30">
-        <v>5</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>17</v>
-      </c>
-      <c r="V30">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V31">
         <v>8</v>
@@ -3671,31 +3669,31 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3731,10 +3729,10 @@
         <v>2</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -3742,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>45600</v>
+        <v>45642</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3757,52 +3755,52 @@
         <v>3</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3816,21 +3814,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3867,19 +3857,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3888,18 +3878,18 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3911,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3920,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3931,7 +3921,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3946,24 +3936,24 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3975,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3984,7 +3974,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3995,7 +3985,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4010,39 +4000,39 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -4051,47 +4041,47 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4103,59 +4093,59 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4167,16 +4157,16 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -4187,7 +4177,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4196,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4214,47 +4204,47 @@
         <v>2</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4263,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4283,19 +4273,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4310,12 +4300,12 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4330,36 +4320,36 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4368,50 +4358,50 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4432,24 +4422,24 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4458,24 +4448,24 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4487,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4499,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4507,19 +4497,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4528,18 +4518,18 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4563,15 +4553,15 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4583,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -4595,15 +4585,15 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4621,21 +4611,21 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4647,27 +4637,27 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4679,19 +4669,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -4699,83 +4689,83 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4784,18 +4774,18 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4804,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4813,36 +4803,36 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4851,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4859,7 +4849,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4868,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4880,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4943,39 +4933,39 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4984,51 +4974,51 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -5039,10 +5029,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5057,109 +5047,109 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>7</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -5167,103 +5157,103 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5272,22 +5262,22 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -5295,63 +5285,63 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -5359,7 +5349,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5374,24 +5364,24 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -5400,86 +5390,86 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>8</v>
@@ -5487,19 +5477,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -5508,18 +5498,18 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -5528,10 +5518,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5540,30 +5530,30 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5572,146 +5562,146 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5720,42 +5710,42 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -5764,18 +5754,18 @@
         <v>3</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -5784,103 +5774,103 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -5889,56 +5879,56 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
         <v>8</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>9</v>
-      </c>
       <c r="J32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -5947,19 +5937,19 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>8</v>

--- a/Schedule Analysis/Schedule Analysis.xlsx
+++ b/Schedule Analysis/Schedule Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thigg\Desktop\Hockey_Model\Schedule Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90B94EB-D101-42E3-8858-7CF34EFF1D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86456A6B-22D7-469B-9780-54E67A65E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,102 +38,102 @@
     <t>Score</t>
   </si>
   <si>
+    <t>Edmonton Oilers</t>
+  </si>
+  <si>
     <t>Florida Panthers</t>
   </si>
   <si>
+    <t>Montreal Canadiens</t>
+  </si>
+  <si>
+    <t>Philadelphia Flyers</t>
+  </si>
+  <si>
+    <t>Dallas Stars</t>
+  </si>
+  <si>
+    <t>New York Rangers</t>
+  </si>
+  <si>
+    <t>Ottawa Senators</t>
+  </si>
+  <si>
+    <t>Calgary Flames</t>
+  </si>
+  <si>
+    <t>Detroit Red Wings</t>
+  </si>
+  <si>
+    <t>New Jersey Devils</t>
+  </si>
+  <si>
+    <t>Los Angeles Kings</t>
+  </si>
+  <si>
+    <t>Chicago Blackhawks</t>
+  </si>
+  <si>
+    <t>Vegas Golden Knights</t>
+  </si>
+  <si>
+    <t>Pittsburgh Penguins</t>
+  </si>
+  <si>
+    <t>Carolina Hurricanes</t>
+  </si>
+  <si>
+    <t>Buffalo Sabres</t>
+  </si>
+  <si>
+    <t>Utah Hockey Club</t>
+  </si>
+  <si>
+    <t>Tampa Bay Lightning</t>
+  </si>
+  <si>
+    <t>Colorado Avalanche</t>
+  </si>
+  <si>
+    <t>Vancouver Canucks</t>
+  </si>
+  <si>
+    <t>Nashville Predators</t>
+  </si>
+  <si>
+    <t>Winnipeg Jets</t>
+  </si>
+  <si>
+    <t>New York Islanders</t>
+  </si>
+  <si>
+    <t>Columbus Blue Jackets</t>
+  </si>
+  <si>
+    <t>Seattle Kraken</t>
+  </si>
+  <si>
     <t>Washington Capitals</t>
   </si>
   <si>
-    <t>Colorado Avalanche</t>
-  </si>
-  <si>
-    <t>Vancouver Canucks</t>
-  </si>
-  <si>
-    <t>Edmonton Oilers</t>
+    <t>San Jose Sharks</t>
+  </si>
+  <si>
+    <t>St. Louis Blues</t>
   </si>
   <si>
     <t>Anaheim Ducks</t>
   </si>
   <si>
-    <t>Dallas Stars</t>
-  </si>
-  <si>
-    <t>Utah Hockey Club</t>
-  </si>
-  <si>
-    <t>Ottawa Senators</t>
-  </si>
-  <si>
-    <t>Seattle Kraken</t>
-  </si>
-  <si>
-    <t>Los Angeles Kings</t>
-  </si>
-  <si>
-    <t>Carolina Hurricanes</t>
+    <t>Toronto Maple Leafs</t>
   </si>
   <si>
     <t>Minnesota Wild</t>
   </si>
   <si>
-    <t>Toronto Maple Leafs</t>
-  </si>
-  <si>
-    <t>Detroit Red Wings</t>
-  </si>
-  <si>
-    <t>New York Rangers</t>
-  </si>
-  <si>
-    <t>Montreal Canadiens</t>
-  </si>
-  <si>
-    <t>Tampa Bay Lightning</t>
-  </si>
-  <si>
-    <t>Buffalo Sabres</t>
-  </si>
-  <si>
-    <t>Philadelphia Flyers</t>
-  </si>
-  <si>
-    <t>St. Louis Blues</t>
-  </si>
-  <si>
-    <t>Winnipeg Jets</t>
-  </si>
-  <si>
-    <t>Pittsburgh Penguins</t>
-  </si>
-  <si>
-    <t>Chicago Blackhawks</t>
-  </si>
-  <si>
     <t>Boston Bruins</t>
   </si>
   <si>
-    <t>New Jersey Devils</t>
-  </si>
-  <si>
-    <t>San Jose Sharks</t>
-  </si>
-  <si>
-    <t>Columbus Blue Jackets</t>
-  </si>
-  <si>
-    <t>Nashville Predators</t>
-  </si>
-  <si>
-    <t>Calgary Flames</t>
-  </si>
-  <si>
-    <t>Vegas Golden Knights</t>
-  </si>
-  <si>
-    <t>New York Islanders</t>
-  </si>
-  <si>
     <t>Next_Week_Num_Games</t>
   </si>
   <si>
@@ -188,25 +188,25 @@
     <t>Total_Rank</t>
   </si>
   <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
     <t>Mon</t>
   </si>
   <si>
-    <t>Tue</t>
-  </si>
-  <si>
     <t>Wed</t>
   </si>
   <si>
-    <t>Thu</t>
-  </si>
-  <si>
     <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
   </si>
   <si>
     <t>Total_Light</t>
@@ -248,7 +248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -600,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,10 +616,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,10 +658,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +669,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +683,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +697,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,13 +795,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>6.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +826,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,10 +840,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,10 +854,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,10 +896,10 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,41 +1082,41 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,55 +1124,55 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,27 +1180,27 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,307 +1208,307 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,13 +1516,13 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1537,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,309 +1634,309 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>7.5</v>
-      </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
+        <v>5.5</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>4.5</v>
       </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-      <c r="O2">
-        <v>9</v>
-      </c>
       <c r="P2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q2">
         <v>14</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V2">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
+        <v>5.5</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
       <c r="P3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q3">
         <v>14</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="U3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V3">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>4.5</v>
+      </c>
+      <c r="P4">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>6.5</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>6.5</v>
-      </c>
-      <c r="P4">
-        <v>28</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
       <c r="S4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="U4">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="V4">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45670</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4.5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>6.5</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>45642</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
+      <c r="P5">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>5.5</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5">
-        <v>27.5</v>
-      </c>
-      <c r="Q5">
-        <v>13</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
-      </c>
       <c r="S5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V5">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -1946,131 +1948,131 @@
         <v>6.5</v>
       </c>
       <c r="P6">
-        <v>27.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q6">
         <v>13</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S6">
+        <v>25</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
         <v>28</v>
       </c>
-      <c r="T6">
-        <v>24</v>
-      </c>
-      <c r="U6">
-        <v>27</v>
-      </c>
       <c r="V6">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P7">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="Q7">
         <v>13</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="U7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V7">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -2082,72 +2084,72 @@
         <v>6.5</v>
       </c>
       <c r="P8">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V8">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
+        <v>5.5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5.5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
         <v>6.5</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>7.5</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>4.5</v>
-      </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
       </c>
       <c r="P9">
         <v>25.5</v>
@@ -2159,92 +2161,92 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T9">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="U9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="V9">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>7</v>
       </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>4.5</v>
-      </c>
       <c r="P10">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S10">
         <v>23</v>
       </c>
       <c r="T10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V10">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2259,22 +2261,22 @@
         <v>4.5</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M11">
         <v>4</v>
@@ -2286,199 +2288,199 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>23</v>
       </c>
       <c r="T11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
+        <v>4.5</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
         <v>6.5</v>
       </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>7.5</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>4.5</v>
-      </c>
       <c r="M12">
         <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P12">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S12">
+        <v>22</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="U12">
         <v>20</v>
       </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-      <c r="U12">
-        <v>23</v>
-      </c>
       <c r="V12">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>5.5</v>
       </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>7.5</v>
-      </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>3</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>20</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="U13">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="V13">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M14">
         <v>3</v>
@@ -2490,131 +2492,131 @@
         <v>6.5</v>
       </c>
       <c r="P14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14">
         <v>12</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V14">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
+        <v>5.5</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>4.5</v>
       </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>8</v>
-      </c>
       <c r="P15">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V15">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -2626,101 +2628,101 @@
         <v>4.5</v>
       </c>
       <c r="P16">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V16">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
+        <v>4.5</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>5.5</v>
       </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>7.5</v>
-      </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17">
         <v>12</v>
       </c>
       <c r="R17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V17">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2735,188 +2737,188 @@
         <v>4.5</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>16</v>
       </c>
       <c r="T18">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="V18">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V19">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
+        <v>4.5</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5.5</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
       <c r="M20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
+        <v>5.5</v>
+      </c>
+      <c r="P20">
+        <v>22.5</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>14</v>
+      </c>
+      <c r="T20">
+        <v>15</v>
+      </c>
+      <c r="U20">
         <v>7</v>
       </c>
-      <c r="P20">
-        <v>23</v>
-      </c>
-      <c r="Q20">
-        <v>12</v>
-      </c>
-      <c r="R20">
-        <v>5</v>
-      </c>
-      <c r="S20">
-        <v>8</v>
-      </c>
-      <c r="T20">
-        <v>5</v>
-      </c>
-      <c r="U20">
-        <v>8</v>
-      </c>
       <c r="V20">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -2924,7 +2926,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2939,60 +2941,60 @@
         <v>7</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="P21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21">
         <v>12</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V21">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3010,19 +3012,19 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -3034,54 +3036,54 @@
         <v>5.5</v>
       </c>
       <c r="P22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q22">
         <v>12</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V22">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -3102,78 +3104,78 @@
         <v>4.5</v>
       </c>
       <c r="P23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23">
         <v>12</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V23">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24">
         <v>5</v>
@@ -3182,89 +3184,89 @@
         <v>8</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="V24">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
+        <v>4.5</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>5.5</v>
       </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P25">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>8</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3282,193 +3284,193 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P26">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26">
         <v>8</v>
       </c>
       <c r="T26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U26">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
+        <v>4.5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>5.5</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>5.5</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>5.5</v>
+      </c>
+      <c r="P27">
+        <v>21</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+      <c r="U27">
         <v>7</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>6.5</v>
-      </c>
-      <c r="P27">
-        <v>22.5</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-      <c r="R27">
-        <v>6</v>
-      </c>
-      <c r="S27">
-        <v>7</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
+      <c r="V27">
         <v>16</v>
-      </c>
-      <c r="V27">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>5.5</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>4.5</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>7.5</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>4.5</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>5.5</v>
-      </c>
       <c r="P28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q28">
         <v>12</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S28">
         <v>5</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V28">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -3483,60 +3485,60 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q29">
         <v>12</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>5</v>
       </c>
       <c r="T29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V29">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -3551,22 +3553,22 @@
         <v>4.5</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -3578,33 +3580,33 @@
         <v>4.5</v>
       </c>
       <c r="P30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q30">
         <v>12</v>
       </c>
       <c r="R30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U30">
         <v>1</v>
       </c>
       <c r="V30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -3619,49 +3621,49 @@
         <v>4.5</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31">
         <v>2</v>
       </c>
       <c r="L31">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S31">
         <v>3</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>8</v>
@@ -3669,10 +3671,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -3687,108 +3689,108 @@
         <v>4.5</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Q32">
         <v>11</v>
       </c>
       <c r="R32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>1</v>
       </c>
       <c r="V32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>45642</v>
+        <v>45670</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P33">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -3797,14 +3799,18 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:V1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V33">
+      <sortCondition descending="1" ref="P1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3857,13 +3863,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3872,42 +3878,42 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3916,18 +3922,18 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3936,48 +3942,48 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -3985,13 +3991,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4000,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4012,12 +4018,12 @@
         <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4026,80 +4032,80 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4113,22 +4119,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4137,68 +4143,68 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -4209,13 +4215,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4230,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4250,30 +4256,30 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4288,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4297,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4305,25 +4311,25 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4332,30 +4338,30 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4369,16 +4375,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4387,13 +4393,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -4401,16 +4407,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4419,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4428,53 +4434,53 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4483,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -4497,25 +4503,25 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4524,39 +4530,39 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4564,22 +4570,22 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4593,31 +4599,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4625,22 +4631,22 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4649,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4660,16 +4666,16 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4678,24 +4684,24 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -4704,30 +4710,30 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -4736,80 +4742,80 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4826,25 +4832,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -4852,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4867,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4933,348 +4939,348 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>5</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>6</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -5285,34 +5291,34 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
       <c r="J13">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5320,28 +5326,28 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -5349,103 +5355,103 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>4</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -5454,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -5463,176 +5469,176 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>5</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>5</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>5</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5640,95 +5646,95 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5736,60 +5742,60 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>8</v>
@@ -5797,95 +5803,95 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <v>8</v>
@@ -5893,34 +5899,34 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5928,13 +5934,13 @@
         <v>25</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5943,16 +5949,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
